--- a/data/income_statement/2digits/total/17_IS_TOTAL.xlsx
+++ b/data/income_statement/2digits/total/17_IS_TOTAL.xlsx
@@ -3,198 +3,25 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr codeName="ThisWorkbook"/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="934" visibility="visible" windowHeight="2385" windowWidth="4830" xWindow="600" yWindow="2550"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="600" yWindow="2550" windowWidth="4830" windowHeight="2385" tabRatio="934" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="KGEL" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames>
-    <definedName localSheetId="0" name="\u">#REF!</definedName>
+    <definedName name="\u" localSheetId="0">#REF!</definedName>
     <definedName name="\u">#REF!</definedName>
-    <definedName localSheetId="0" name="_xlnm.Print_Area">KGEL!$A$1:$M$61</definedName>
+    <definedName name="_xlnm.Print_Area" localSheetId="0">'KGEL'!$A$1:$N$61</definedName>
   </definedNames>
   <calcPr calcId="162913" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="56">
-  <si>
-    <t>17-Manufacture of paper and paper products</t>
-  </si>
-  <si>
-    <t>INCOME STATEMENT (TRY THOUSANDS)</t>
-  </si>
-  <si>
-    <t>A-GROSS SALES</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Domestic Sales</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Exports</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other </t>
-  </si>
-  <si>
-    <t>B-DEDUCTIONS FROM SALES    (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Sales Returns (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Sales Discounts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Deductions (-)</t>
-  </si>
-  <si>
-    <t>C-NET SALES</t>
-  </si>
-  <si>
-    <t>D-COST OF GOODS SOLD  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
-  </si>
-  <si>
-    <t>GROSS PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>E-OPERATING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-General Administration Expenses (-)</t>
-  </si>
-  <si>
-    <t>OPERATING PROFIT OR LOSS</t>
-  </si>
-  <si>
-    <t>F-INCOME FROM OTHER OPERATIONS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Dividends from Participations</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Interest Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Commissions</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Provisions that are Cancelled</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Income from Sale of Securities</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Exchange Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    8-Discount Income</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
-  </si>
-  <si>
-    <t xml:space="preserve">   10-Other Income</t>
-  </si>
-  <si>
-    <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Commissions (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Provision Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    4-Exchange Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    5-Discount Costs (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    7-Other Expenditures (-)</t>
-  </si>
-  <si>
-    <t>H-FINANCING EXPENSES  (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
-  </si>
-  <si>
-    <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
-  </si>
-  <si>
-    <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
-  </si>
-  <si>
-    <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
-  </si>
-  <si>
-    <t>PROFIT OR LOSS BEFORE TAXES</t>
-  </si>
-  <si>
-    <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
-  </si>
-  <si>
-    <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
-  </si>
-  <si>
-    <t>Number of Companies</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt formatCode="#,##0.0_);\(#,##0.0\)" numFmtId="164"/>
-    <numFmt formatCode="0_)" numFmtId="165"/>
+    <numFmt numFmtId="164" formatCode="#,##0.0_);\(#,##0.0\)"/>
+    <numFmt numFmtId="165" formatCode="0_)"/>
   </numFmts>
   <fonts count="13">
     <font>
@@ -459,97 +286,165 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="49">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="centerContinuous"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="left"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="2" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="3" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="0" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="2" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="3" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="0" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="2" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="4" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="1" fillId="0" fontId="5" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="5" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="4" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="5" fillId="0" borderId="1" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyProtection="1" borderId="5" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="5" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="5" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="7" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="5" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="7" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="6" fillId="0" fontId="8" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="6" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="7" fillId="0" fontId="9" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="8" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="6" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="9" fillId="0" borderId="7" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="10" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="12" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="13" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="14" fillId="0" fontId="1" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" applyProtection="1" borderId="0" fillId="0" fontId="3" numFmtId="37" pivotButton="0" quotePrefix="1" xfId="0">
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="10" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="12" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="13" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="1" fillId="0" borderId="14" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="3" fillId="0" borderId="0" applyAlignment="1" applyProtection="1" pivotButton="0" quotePrefix="1" xfId="0">
       <alignment horizontal="left"/>
-      <protection hidden="0" locked="0"/>
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf applyAlignment="1" borderId="8" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="8" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="1" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="37" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="2" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="11" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="12" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="4" numFmtId="37" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="9" fillId="0" fontId="4" numFmtId="165" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="2" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="11" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="12" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="37" fontId="4" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="165" fontId="4" fillId="0" borderId="9" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center"/>
     </xf>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
-    <xf borderId="11" fillId="0" fontId="6" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyProtection="1" borderId="11" fillId="0" fontId="10" numFmtId="164" pivotButton="0" quotePrefix="0" xfId="0">
-      <protection hidden="0" locked="0"/>
+    <xf numFmtId="164" fontId="6" fillId="0" borderId="11" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="164" fontId="10" fillId="0" borderId="11" applyProtection="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <protection locked="0" hidden="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="008080FF"/>
+      <rgbColor rgb="00802060"/>
+      <rgbColor rgb="00FFFFC0"/>
+      <rgbColor rgb="00A0E0E0"/>
+      <rgbColor rgb="00600080"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000080C0"/>
+      <rgbColor rgb="00C0C0FF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CFFF"/>
+      <rgbColor rgb="0069FFFF"/>
+      <rgbColor rgb="00E0FFE0"/>
+      <rgbColor rgb="00FFFF80"/>
+      <rgbColor rgb="00A6CAF0"/>
+      <rgbColor rgb="00DD9CB3"/>
+      <rgbColor rgb="00B38FEE"/>
+      <rgbColor rgb="00E3E3E3"/>
+      <rgbColor rgb="002A6FF9"/>
+      <rgbColor rgb="003FB8CD"/>
+      <rgbColor rgb="00488436"/>
+      <rgbColor rgb="00958C41"/>
+      <rgbColor rgb="008E5E42"/>
+      <rgbColor rgb="00A0627A"/>
+      <rgbColor rgb="00624FAC"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="001D2FBE"/>
+      <rgbColor rgb="00286676"/>
+      <rgbColor rgb="00004500"/>
+      <rgbColor rgb="00453E01"/>
+      <rgbColor rgb="006A2813"/>
+      <rgbColor rgb="0085396A"/>
+      <rgbColor rgb="004A3285"/>
+      <rgbColor rgb="00424242"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -844,23 +739,22 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:M64"/>
+  <dimension ref="A1:N64"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" outlineLevelCol="0" zeroHeight="1"/>
+  <sheetFormatPr baseColWidth="8" defaultColWidth="0" defaultRowHeight="13.5" zeroHeight="1"/>
   <cols>
-    <col customWidth="1" max="1" min="1" style="15" width="1.625"/>
-    <col customWidth="1" max="2" min="2" style="15" width="35"/>
-    <col customWidth="1" max="12" min="3" style="15" width="10.25"/>
-    <col customWidth="1" max="13" min="13" style="15" width="10.375"/>
-    <col customWidth="1" max="14" min="14" style="15" width="9"/>
-    <col customWidth="1" hidden="1" max="16384" min="15" style="15"/>
+    <col width="1.625" customWidth="1" style="15" min="1" max="1"/>
+    <col width="35" customWidth="1" style="15" min="2" max="2"/>
+    <col width="13.125" customWidth="1" style="15" min="3" max="14"/>
+    <col width="9" customWidth="1" style="15" min="15" max="15"/>
+    <col hidden="1" style="15" min="16" max="16384"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13">
+    <row r="1">
       <c r="A1" s="12" t="n"/>
       <c r="B1" s="11" t="n"/>
       <c r="C1" s="2" t="n"/>
@@ -873,11 +767,14 @@
       <c r="J1" s="2" t="n"/>
       <c r="K1" s="2" t="n"/>
       <c r="L1" s="2" t="n"/>
-      <c r="M1" s="11" t="n"/>
-    </row>
-    <row r="2" spans="1:13">
-      <c r="A2" s="31" t="s">
-        <v>0</v>
+      <c r="M1" s="2" t="n"/>
+      <c r="N1" s="11" t="n"/>
+    </row>
+    <row r="2">
+      <c r="A2" s="31" t="inlineStr">
+        <is>
+          <t>17-Manufacture of paper and paper products</t>
+        </is>
       </c>
       <c r="C2" s="12" t="n"/>
       <c r="D2" s="12" t="n"/>
@@ -890,10 +787,13 @@
       <c r="K2" s="12" t="n"/>
       <c r="L2" s="12" t="n"/>
       <c r="M2" s="12" t="n"/>
-    </row>
-    <row r="3" spans="1:13">
-      <c r="A3" s="4" t="s">
-        <v>1</v>
+      <c r="N2" s="12" t="n"/>
+    </row>
+    <row r="3">
+      <c r="A3" s="4" t="inlineStr">
+        <is>
+          <t>INCOME STATEMENT (TRY THOUSANDS)</t>
+        </is>
       </c>
       <c r="C3" s="12" t="n"/>
       <c r="D3" s="12" t="n"/>
@@ -906,8 +806,9 @@
       <c r="K3" s="12" t="n"/>
       <c r="L3" s="12" t="n"/>
       <c r="M3" s="12" t="n"/>
-    </row>
-    <row customHeight="1" ht="14.1" r="4" s="44" spans="1:13">
+      <c r="N3" s="12" t="n"/>
+    </row>
+    <row r="4" ht="14.1" customHeight="1" s="44">
       <c r="A4" s="8" t="n"/>
       <c r="B4" s="13" t="n"/>
       <c r="C4" s="33" t="n">
@@ -940,14 +841,19 @@
       <c r="L4" s="32" t="n">
         <v>2018</v>
       </c>
-      <c r="M4" s="33" t="n">
+      <c r="M4" s="32" t="n">
         <v>2019</v>
       </c>
-    </row>
-    <row r="5" spans="1:13">
+      <c r="N4" s="33" t="n">
+        <v>2020</v>
+      </c>
+    </row>
+    <row r="5">
       <c r="A5" s="14" t="n"/>
-      <c r="B5" s="38" t="s">
-        <v>2</v>
+      <c r="B5" s="38" t="inlineStr">
+        <is>
+          <t>A-GROSS SALES</t>
+        </is>
       </c>
       <c r="C5" s="46" t="n">
         <v>11724194.53022</v>
@@ -962,31 +868,36 @@
         <v>19101936.47669</v>
       </c>
       <c r="G5" s="47" t="n">
-        <v>21932986.91028</v>
+        <v>21934600.93798</v>
       </c>
       <c r="H5" s="47" t="n">
-        <v>27189774.13954</v>
+        <v>27393065.47339</v>
       </c>
       <c r="I5" s="47" t="n">
-        <v>30880673.96013001</v>
+        <v>31976248.70485</v>
       </c>
       <c r="J5" s="47" t="n">
-        <v>32159278.20851</v>
+        <v>35678995.13971</v>
       </c>
       <c r="K5" s="47" t="n">
         <v>46612816.9534</v>
       </c>
       <c r="L5" s="47" t="n">
-        <v>65468549.10217</v>
+        <v>65494063.14412</v>
       </c>
       <c r="M5" s="47" t="n">
-        <v>77869820.43569</v>
-      </c>
-    </row>
-    <row r="6" spans="1:13">
+        <v>78130684.39904</v>
+      </c>
+      <c r="N5" s="47" t="n">
+        <v>98232673.287</v>
+      </c>
+    </row>
+    <row r="6">
       <c r="A6" s="9" t="n"/>
-      <c r="B6" s="3" t="s">
-        <v>3</v>
+      <c r="B6" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Domestic Sales</t>
+        </is>
       </c>
       <c r="C6" s="48" t="n">
         <v>9844276.578159999</v>
@@ -1001,31 +912,36 @@
         <v>15689840.72118</v>
       </c>
       <c r="G6" s="48" t="n">
-        <v>18200960.7341</v>
+        <v>18202318.88877</v>
       </c>
       <c r="H6" s="48" t="n">
-        <v>22439185.92498</v>
+        <v>22635668.42097</v>
       </c>
       <c r="I6" s="48" t="n">
-        <v>25312910.09134</v>
+        <v>26229367.89527</v>
       </c>
       <c r="J6" s="48" t="n">
-        <v>25306011.62045</v>
+        <v>28375323.74926</v>
       </c>
       <c r="K6" s="48" t="n">
         <v>37966291.95266</v>
       </c>
       <c r="L6" s="48" t="n">
-        <v>52244803.9681</v>
+        <v>52268094.93059999</v>
       </c>
       <c r="M6" s="48" t="n">
-        <v>61976198.07231999</v>
-      </c>
-    </row>
-    <row r="7" spans="1:13">
+        <v>62218255.99524</v>
+      </c>
+      <c r="N6" s="48" t="n">
+        <v>77932251.473</v>
+      </c>
+    </row>
+    <row r="7">
       <c r="A7" s="9" t="n"/>
-      <c r="B7" s="3" t="s">
-        <v>4</v>
+      <c r="B7" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Exports</t>
+        </is>
       </c>
       <c r="C7" s="48" t="n">
         <v>1791260.40315</v>
@@ -1043,28 +959,33 @@
         <v>3561940.232830001</v>
       </c>
       <c r="H7" s="48" t="n">
-        <v>4521480.56408</v>
+        <v>4527292.41281</v>
       </c>
       <c r="I7" s="48" t="n">
-        <v>5323647.78646</v>
+        <v>5494875.08792</v>
       </c>
       <c r="J7" s="48" t="n">
-        <v>6551007.91569</v>
+        <v>6976100.22581</v>
       </c>
       <c r="K7" s="48" t="n">
-        <v>8226096.011339999</v>
+        <v>8226096.01134</v>
       </c>
       <c r="L7" s="48" t="n">
-        <v>12557405.98618</v>
+        <v>12559594.21917</v>
       </c>
       <c r="M7" s="48" t="n">
-        <v>15093689.74165</v>
-      </c>
-    </row>
-    <row r="8" spans="1:13">
+        <v>15108934.0318</v>
+      </c>
+      <c r="N7" s="48" t="n">
+        <v>19350234.826</v>
+      </c>
+    </row>
+    <row r="8">
       <c r="A8" s="9" t="n"/>
-      <c r="B8" s="3" t="s">
-        <v>5</v>
+      <c r="B8" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other </t>
+        </is>
       </c>
       <c r="C8" s="48" t="n">
         <v>88657.54891</v>
@@ -1079,31 +1000,36 @@
         <v>128935.0663</v>
       </c>
       <c r="G8" s="48" t="n">
-        <v>170085.94335</v>
+        <v>170341.81638</v>
       </c>
       <c r="H8" s="48" t="n">
-        <v>229107.65048</v>
+        <v>230104.63961</v>
       </c>
       <c r="I8" s="48" t="n">
-        <v>244116.08233</v>
+        <v>252005.72166</v>
       </c>
       <c r="J8" s="48" t="n">
-        <v>302258.67237</v>
+        <v>327571.16464</v>
       </c>
       <c r="K8" s="48" t="n">
         <v>420428.9894</v>
       </c>
       <c r="L8" s="48" t="n">
-        <v>666339.14789</v>
+        <v>666373.9943500001</v>
       </c>
       <c r="M8" s="48" t="n">
-        <v>799932.6217200001</v>
-      </c>
-    </row>
-    <row r="9" spans="1:13">
+        <v>803494.372</v>
+      </c>
+      <c r="N8" s="48" t="n">
+        <v>950186.988</v>
+      </c>
+    </row>
+    <row r="9">
       <c r="A9" s="14" t="n"/>
-      <c r="B9" s="38" t="s">
-        <v>6</v>
+      <c r="B9" s="38" t="inlineStr">
+        <is>
+          <t>B-DEDUCTIONS FROM SALES    (-)</t>
+        </is>
       </c>
       <c r="C9" s="46" t="n">
         <v>1028869.05731</v>
@@ -1118,31 +1044,36 @@
         <v>1393518.15982</v>
       </c>
       <c r="G9" s="47" t="n">
-        <v>1633697.67823</v>
+        <v>1634008.94118</v>
       </c>
       <c r="H9" s="47" t="n">
-        <v>1995040.21559</v>
+        <v>2007580.43735</v>
       </c>
       <c r="I9" s="47" t="n">
-        <v>2436322.199080001</v>
+        <v>2460157.06852</v>
       </c>
       <c r="J9" s="47" t="n">
-        <v>1634940.56523</v>
+        <v>2618473.72596</v>
       </c>
       <c r="K9" s="47" t="n">
         <v>3130521.44374</v>
       </c>
       <c r="L9" s="47" t="n">
-        <v>4732243.8846</v>
+        <v>4732383.369779999</v>
       </c>
       <c r="M9" s="47" t="n">
-        <v>7168864.605570001</v>
-      </c>
-    </row>
-    <row r="10" spans="1:13">
+        <v>7172474.019359999</v>
+      </c>
+      <c r="N9" s="47" t="n">
+        <v>8527911.49</v>
+      </c>
+    </row>
+    <row r="10">
       <c r="A10" s="9" t="n"/>
-      <c r="B10" s="3" t="s">
-        <v>7</v>
+      <c r="B10" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Sales Returns (-)</t>
+        </is>
       </c>
       <c r="C10" s="48" t="n">
         <v>93778.38089</v>
@@ -1157,34 +1088,39 @@
         <v>123103.56498</v>
       </c>
       <c r="G10" s="48" t="n">
-        <v>142941.33084</v>
+        <v>143054.85992</v>
       </c>
       <c r="H10" s="48" t="n">
-        <v>199092.9242</v>
+        <v>199392.58804</v>
       </c>
       <c r="I10" s="48" t="n">
-        <v>195669.06408</v>
+        <v>202621.17066</v>
       </c>
       <c r="J10" s="48" t="n">
-        <v>288975.53299</v>
+        <v>296204.53359</v>
       </c>
       <c r="K10" s="48" t="n">
         <v>282376.38514</v>
       </c>
       <c r="L10" s="48" t="n">
-        <v>428754.6416</v>
+        <v>428892.83045</v>
       </c>
       <c r="M10" s="48" t="n">
-        <v>485975.42211</v>
-      </c>
-    </row>
-    <row r="11" spans="1:13">
+        <v>488183.3481</v>
+      </c>
+      <c r="N10" s="48" t="n">
+        <v>765401.803</v>
+      </c>
+    </row>
+    <row r="11">
       <c r="A11" s="9" t="n"/>
-      <c r="B11" s="3" t="s">
-        <v>8</v>
+      <c r="B11" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Sales Discounts (-)</t>
+        </is>
       </c>
       <c r="C11" s="48" t="n">
-        <v>890191.6243500001</v>
+        <v>890191.6243500002</v>
       </c>
       <c r="D11" s="48" t="n">
         <v>1050593.26491</v>
@@ -1196,16 +1132,16 @@
         <v>1180207.20763</v>
       </c>
       <c r="G11" s="48" t="n">
-        <v>1399783.59868</v>
+        <v>1399981.33255</v>
       </c>
       <c r="H11" s="48" t="n">
-        <v>1670200.35369</v>
+        <v>1682440.91161</v>
       </c>
       <c r="I11" s="48" t="n">
-        <v>2039208.9904</v>
+        <v>2055184.18468</v>
       </c>
       <c r="J11" s="48" t="n">
-        <v>1163126.7101</v>
+        <v>2139023.49381</v>
       </c>
       <c r="K11" s="48" t="n">
         <v>2640568.42016</v>
@@ -1214,52 +1150,62 @@
         <v>3966430.63986</v>
       </c>
       <c r="M11" s="48" t="n">
-        <v>5911998.3566</v>
-      </c>
-    </row>
-    <row r="12" spans="1:13">
+        <v>5912352.22508</v>
+      </c>
+      <c r="N11" s="48" t="n">
+        <v>6489012.966</v>
+      </c>
+    </row>
+    <row r="12">
       <c r="A12" s="9" t="n"/>
-      <c r="B12" s="3" t="s">
-        <v>9</v>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Deductions (-)</t>
+        </is>
       </c>
       <c r="C12" s="48" t="n">
         <v>44899.05207</v>
       </c>
       <c r="D12" s="48" t="n">
-        <v>56775.21834000001</v>
+        <v>56775.21834</v>
       </c>
       <c r="E12" s="48" t="n">
         <v>69525.41968000001</v>
       </c>
       <c r="F12" s="48" t="n">
-        <v>90207.38721000002</v>
+        <v>90207.38720999999</v>
       </c>
       <c r="G12" s="48" t="n">
-        <v>90972.74871</v>
+        <v>90972.74871000001</v>
       </c>
       <c r="H12" s="48" t="n">
         <v>125746.9377</v>
       </c>
       <c r="I12" s="48" t="n">
-        <v>201444.1446</v>
+        <v>202351.71318</v>
       </c>
       <c r="J12" s="48" t="n">
-        <v>182838.32214</v>
+        <v>183245.69856</v>
       </c>
       <c r="K12" s="48" t="n">
         <v>207576.63844</v>
       </c>
       <c r="L12" s="48" t="n">
-        <v>337058.60314</v>
+        <v>337059.89947</v>
       </c>
       <c r="M12" s="48" t="n">
-        <v>770890.82686</v>
-      </c>
-    </row>
-    <row r="13" spans="1:13">
+        <v>771938.4461800001</v>
+      </c>
+      <c r="N12" s="48" t="n">
+        <v>1273496.721</v>
+      </c>
+    </row>
+    <row r="13">
       <c r="A13" s="14" t="n"/>
-      <c r="B13" s="38" t="s">
-        <v>10</v>
+      <c r="B13" s="38" t="inlineStr">
+        <is>
+          <t>C-NET SALES</t>
+        </is>
       </c>
       <c r="C13" s="46" t="n">
         <v>10695325.47291</v>
@@ -1274,31 +1220,36 @@
         <v>17708418.31687</v>
       </c>
       <c r="G13" s="47" t="n">
-        <v>20299289.23205</v>
+        <v>20300591.9968</v>
       </c>
       <c r="H13" s="47" t="n">
-        <v>25194733.92395001</v>
+        <v>25385485.03604</v>
       </c>
       <c r="I13" s="47" t="n">
-        <v>28444351.76105</v>
+        <v>29516091.63633</v>
       </c>
       <c r="J13" s="47" t="n">
-        <v>30524337.64328</v>
+        <v>33060521.41375</v>
       </c>
       <c r="K13" s="47" t="n">
         <v>43482295.50966001</v>
       </c>
       <c r="L13" s="47" t="n">
-        <v>60736305.21757001</v>
+        <v>60761679.77434</v>
       </c>
       <c r="M13" s="47" t="n">
-        <v>70700955.83012</v>
-      </c>
-    </row>
-    <row r="14" spans="1:13">
+        <v>70958210.37967999</v>
+      </c>
+      <c r="N13" s="47" t="n">
+        <v>89704761.79700001</v>
+      </c>
+    </row>
+    <row r="14">
       <c r="A14" s="14" t="n"/>
-      <c r="B14" s="38" t="s">
-        <v>11</v>
+      <c r="B14" s="38" t="inlineStr">
+        <is>
+          <t>D-COST OF GOODS SOLD  (-)</t>
+        </is>
       </c>
       <c r="C14" s="46" t="n">
         <v>8501137.757999999</v>
@@ -1313,31 +1264,36 @@
         <v>14379592.9405</v>
       </c>
       <c r="G14" s="47" t="n">
-        <v>16455940.43969</v>
+        <v>16457239.42085</v>
       </c>
       <c r="H14" s="47" t="n">
-        <v>20436486.02459</v>
+        <v>20593179.61707</v>
       </c>
       <c r="I14" s="47" t="n">
-        <v>23144130.0609</v>
+        <v>24023384.10007</v>
       </c>
       <c r="J14" s="47" t="n">
-        <v>25118134.44449</v>
+        <v>27135595.77746</v>
       </c>
       <c r="K14" s="47" t="n">
         <v>35061942.2837</v>
       </c>
       <c r="L14" s="47" t="n">
-        <v>47449781.78965</v>
+        <v>47472359.05447999</v>
       </c>
       <c r="M14" s="47" t="n">
-        <v>56075908.1781</v>
-      </c>
-    </row>
-    <row r="15" spans="1:13">
+        <v>56298754.14877</v>
+      </c>
+      <c r="N14" s="47" t="n">
+        <v>69159402.851</v>
+      </c>
+    </row>
+    <row r="15">
       <c r="A15" s="9" t="n"/>
-      <c r="B15" s="3" t="s">
-        <v>12</v>
+      <c r="B15" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Cost of Finished Goods Sold (-)</t>
+        </is>
       </c>
       <c r="C15" s="48" t="n">
         <v>7130730.58641</v>
@@ -1352,31 +1308,36 @@
         <v>12243405.56512</v>
       </c>
       <c r="G15" s="48" t="n">
-        <v>13813704.68426</v>
+        <v>13814643.89143</v>
       </c>
       <c r="H15" s="48" t="n">
-        <v>17250292.15963</v>
+        <v>17403126.21455</v>
       </c>
       <c r="I15" s="48" t="n">
-        <v>19193211.42408</v>
+        <v>20052488.47524</v>
       </c>
       <c r="J15" s="48" t="n">
-        <v>21824302.06522</v>
+        <v>22710566.69176</v>
       </c>
       <c r="K15" s="48" t="n">
         <v>29869611.08254</v>
       </c>
       <c r="L15" s="48" t="n">
-        <v>40388435.47097</v>
+        <v>40402488.51990999</v>
       </c>
       <c r="M15" s="48" t="n">
-        <v>48269966.33964999</v>
-      </c>
-    </row>
-    <row r="16" spans="1:13">
+        <v>48455569.14844999</v>
+      </c>
+      <c r="N15" s="48" t="n">
+        <v>59623946.993</v>
+      </c>
+    </row>
+    <row r="16">
       <c r="A16" s="9" t="n"/>
-      <c r="B16" s="3" t="s">
-        <v>13</v>
+      <c r="B16" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Cost of Merchandise Sold (-)</t>
+        </is>
       </c>
       <c r="C16" s="48" t="n">
         <v>1220043.51702</v>
@@ -1394,31 +1355,36 @@
         <v>2240978.368</v>
       </c>
       <c r="H16" s="48" t="n">
-        <v>2757387.27909</v>
+        <v>2759722.31976</v>
       </c>
       <c r="I16" s="48" t="n">
-        <v>3388791.71776</v>
+        <v>3402993.4925</v>
       </c>
       <c r="J16" s="48" t="n">
-        <v>2774534.69862</v>
+        <v>3904539.75921</v>
       </c>
       <c r="K16" s="48" t="n">
-        <v>4626130.641280001</v>
+        <v>4626130.64128</v>
       </c>
       <c r="L16" s="48" t="n">
-        <v>6237582.13004</v>
+        <v>6244966.129319999</v>
       </c>
       <c r="M16" s="48" t="n">
-        <v>6521634.79475</v>
-      </c>
-    </row>
-    <row r="17" spans="1:13">
+        <v>6557534.72196</v>
+      </c>
+      <c r="N16" s="48" t="n">
+        <v>8577079.877</v>
+      </c>
+    </row>
+    <row r="17">
       <c r="A17" s="9" t="n"/>
-      <c r="B17" s="3" t="s">
-        <v>14</v>
+      <c r="B17" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Cost of Services Sold (-)</t>
+        </is>
       </c>
       <c r="C17" s="48" t="n">
-        <v>89913.25296</v>
+        <v>89913.25296000001</v>
       </c>
       <c r="D17" s="48" t="n">
         <v>111910.35288</v>
@@ -1430,37 +1396,42 @@
         <v>164063.01674</v>
       </c>
       <c r="G17" s="48" t="n">
-        <v>188098.42148</v>
+        <v>188458.19547</v>
       </c>
       <c r="H17" s="48" t="n">
-        <v>165252.26584</v>
+        <v>166271.28486</v>
       </c>
       <c r="I17" s="48" t="n">
-        <v>280343.23874</v>
+        <v>280860.80115</v>
       </c>
       <c r="J17" s="48" t="n">
-        <v>278805.9176</v>
+        <v>278880.28247</v>
       </c>
       <c r="K17" s="48" t="n">
         <v>307094.65272</v>
       </c>
       <c r="L17" s="48" t="n">
-        <v>580227.6391</v>
+        <v>581367.8557099999</v>
       </c>
       <c r="M17" s="48" t="n">
-        <v>979195.71801</v>
-      </c>
-    </row>
-    <row r="18" spans="1:13">
+        <v>980538.95267</v>
+      </c>
+      <c r="N17" s="48" t="n">
+        <v>617097.392</v>
+      </c>
+    </row>
+    <row r="18">
       <c r="A18" s="9" t="n"/>
-      <c r="B18" s="3" t="s">
-        <v>15</v>
+      <c r="B18" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Other Cost of Sales (-)</t>
+        </is>
       </c>
       <c r="C18" s="48" t="n">
         <v>60450.40161</v>
       </c>
       <c r="D18" s="48" t="n">
-        <v>97964.61939000001</v>
+        <v>97964.61938999999</v>
       </c>
       <c r="E18" s="48" t="n">
         <v>125504.29525</v>
@@ -1472,13 +1443,13 @@
         <v>213158.96595</v>
       </c>
       <c r="H18" s="48" t="n">
-        <v>263554.32003</v>
+        <v>264059.7979</v>
       </c>
       <c r="I18" s="48" t="n">
-        <v>281783.68032</v>
+        <v>287041.33118</v>
       </c>
       <c r="J18" s="48" t="n">
-        <v>240491.76305</v>
+        <v>241609.04402</v>
       </c>
       <c r="K18" s="48" t="n">
         <v>259105.90716</v>
@@ -1489,11 +1460,16 @@
       <c r="M18" s="48" t="n">
         <v>305111.32569</v>
       </c>
-    </row>
-    <row r="19" spans="1:13">
+      <c r="N18" s="48" t="n">
+        <v>341278.589</v>
+      </c>
+    </row>
+    <row r="19">
       <c r="A19" s="14" t="n"/>
-      <c r="B19" s="38" t="s">
-        <v>16</v>
+      <c r="B19" s="38" t="inlineStr">
+        <is>
+          <t>GROSS PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C19" s="46" t="n">
         <v>2194187.71491</v>
@@ -1508,31 +1484,36 @@
         <v>3328825.37637</v>
       </c>
       <c r="G19" s="47" t="n">
-        <v>3843348.79236</v>
+        <v>3843352.57595</v>
       </c>
       <c r="H19" s="47" t="n">
-        <v>4758247.89936</v>
+        <v>4792305.41897</v>
       </c>
       <c r="I19" s="47" t="n">
-        <v>5300221.70015</v>
+        <v>5492707.536259999</v>
       </c>
       <c r="J19" s="47" t="n">
-        <v>5406203.19879</v>
+        <v>5924925.63629</v>
       </c>
       <c r="K19" s="47" t="n">
         <v>8420353.225959999</v>
       </c>
       <c r="L19" s="47" t="n">
-        <v>13286523.42792</v>
+        <v>13289320.71986</v>
       </c>
       <c r="M19" s="47" t="n">
-        <v>14625047.65202</v>
-      </c>
-    </row>
-    <row r="20" spans="1:13">
+        <v>14659456.23091</v>
+      </c>
+      <c r="N19" s="47" t="n">
+        <v>20545358.946</v>
+      </c>
+    </row>
+    <row r="20">
       <c r="A20" s="14" t="n"/>
-      <c r="B20" s="38" t="s">
-        <v>17</v>
+      <c r="B20" s="38" t="inlineStr">
+        <is>
+          <t>E-OPERATING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C20" s="46" t="n">
         <v>1490629.72374</v>
@@ -1547,34 +1528,39 @@
         <v>2181897.98455</v>
       </c>
       <c r="G20" s="47" t="n">
-        <v>2546390.36254</v>
+        <v>2550972.95756</v>
       </c>
       <c r="H20" s="47" t="n">
-        <v>3051867.92571</v>
+        <v>3074462.68782</v>
       </c>
       <c r="I20" s="47" t="n">
-        <v>3331895.5891</v>
+        <v>3473776.51041</v>
       </c>
       <c r="J20" s="47" t="n">
-        <v>3625641.47279</v>
+        <v>4016035.81047</v>
       </c>
       <c r="K20" s="47" t="n">
-        <v>4718384.991730001</v>
+        <v>4718384.99173</v>
       </c>
       <c r="L20" s="47" t="n">
-        <v>5853015.69648</v>
+        <v>5860793.064859999</v>
       </c>
       <c r="M20" s="47" t="n">
-        <v>7557427.545049999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:13">
+        <v>7580824.617469999</v>
+      </c>
+      <c r="N20" s="47" t="n">
+        <v>9289835.791999999</v>
+      </c>
+    </row>
+    <row r="21">
       <c r="A21" s="9" t="n"/>
-      <c r="B21" s="3" t="s">
-        <v>18</v>
+      <c r="B21" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Research and Development Expenses (-)</t>
+        </is>
       </c>
       <c r="C21" s="48" t="n">
-        <v>2716.56605</v>
+        <v>2716.566049999999</v>
       </c>
       <c r="D21" s="48" t="n">
         <v>1843.49577</v>
@@ -1586,16 +1572,16 @@
         <v>5055.51613</v>
       </c>
       <c r="G21" s="48" t="n">
-        <v>8210.224699999999</v>
+        <v>8210.224700000001</v>
       </c>
       <c r="H21" s="48" t="n">
-        <v>14687.68874</v>
+        <v>15988.06629</v>
       </c>
       <c r="I21" s="48" t="n">
-        <v>14666.54092</v>
+        <v>16949.49631</v>
       </c>
       <c r="J21" s="48" t="n">
-        <v>25258.88855</v>
+        <v>27870.30754</v>
       </c>
       <c r="K21" s="48" t="n">
         <v>24518.43813</v>
@@ -1604,16 +1590,21 @@
         <v>31242.23212</v>
       </c>
       <c r="M21" s="48" t="n">
-        <v>47509.25019999999</v>
-      </c>
-    </row>
-    <row r="22" spans="1:13">
+        <v>47507.8348</v>
+      </c>
+      <c r="N21" s="48" t="n">
+        <v>51140.524</v>
+      </c>
+    </row>
+    <row r="22">
       <c r="A22" s="9" t="n"/>
-      <c r="B22" s="41" t="s">
-        <v>19</v>
+      <c r="B22" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Marketing, Selling and Distribution Expenses (-)</t>
+        </is>
       </c>
       <c r="C22" s="48" t="n">
-        <v>827155.2503099999</v>
+        <v>827155.25031</v>
       </c>
       <c r="D22" s="48" t="n">
         <v>1117008.05312</v>
@@ -1625,34 +1616,39 @@
         <v>1246289.15406</v>
       </c>
       <c r="G22" s="48" t="n">
-        <v>1498089.19097</v>
+        <v>1498569.77074</v>
       </c>
       <c r="H22" s="48" t="n">
-        <v>1715863.96447</v>
+        <v>1726013.05486</v>
       </c>
       <c r="I22" s="48" t="n">
-        <v>1881889.67388</v>
+        <v>1961675.68243</v>
       </c>
       <c r="J22" s="48" t="n">
-        <v>2111831.07783</v>
+        <v>2282998.79168</v>
       </c>
       <c r="K22" s="48" t="n">
         <v>2765033.00967</v>
       </c>
       <c r="L22" s="48" t="n">
-        <v>3251030.5</v>
+        <v>3251256.05761</v>
       </c>
       <c r="M22" s="48" t="n">
-        <v>4333678.34191</v>
-      </c>
-    </row>
-    <row r="23" spans="1:13">
+        <v>4340042.95141</v>
+      </c>
+      <c r="N22" s="48" t="n">
+        <v>5425763.773</v>
+      </c>
+    </row>
+    <row r="23">
       <c r="A23" s="9" t="n"/>
-      <c r="B23" s="41" t="s">
-        <v>20</v>
+      <c r="B23" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-General Administration Expenses (-)</t>
+        </is>
       </c>
       <c r="C23" s="48" t="n">
-        <v>660757.9073799999</v>
+        <v>660757.9073800001</v>
       </c>
       <c r="D23" s="48" t="n">
         <v>699157.1065499999</v>
@@ -1664,34 +1660,39 @@
         <v>930553.31436</v>
       </c>
       <c r="G23" s="48" t="n">
-        <v>1040090.94687</v>
+        <v>1044192.96212</v>
       </c>
       <c r="H23" s="48" t="n">
-        <v>1321316.2725</v>
+        <v>1332461.56667</v>
       </c>
       <c r="I23" s="48" t="n">
-        <v>1435339.3743</v>
+        <v>1495151.33167</v>
       </c>
       <c r="J23" s="48" t="n">
-        <v>1488551.50641</v>
+        <v>1705166.71125</v>
       </c>
       <c r="K23" s="48" t="n">
         <v>1928833.54393</v>
       </c>
       <c r="L23" s="48" t="n">
-        <v>2570742.96436</v>
+        <v>2578294.77513</v>
       </c>
       <c r="M23" s="48" t="n">
-        <v>3176239.95294</v>
-      </c>
-    </row>
-    <row r="24" spans="1:13">
+        <v>3193273.83126</v>
+      </c>
+      <c r="N23" s="48" t="n">
+        <v>3812931.495</v>
+      </c>
+    </row>
+    <row r="24">
       <c r="A24" s="14" t="n"/>
-      <c r="B24" s="42" t="s">
-        <v>21</v>
+      <c r="B24" s="42" t="inlineStr">
+        <is>
+          <t>OPERATING PROFIT OR LOSS</t>
+        </is>
       </c>
       <c r="C24" s="46" t="n">
-        <v>703557.9911699999</v>
+        <v>703557.9911700001</v>
       </c>
       <c r="D24" s="47" t="n">
         <v>645760.34649</v>
@@ -1703,70 +1704,80 @@
         <v>1146927.39182</v>
       </c>
       <c r="G24" s="47" t="n">
-        <v>1296958.42982</v>
+        <v>1292379.61839</v>
       </c>
       <c r="H24" s="47" t="n">
-        <v>1706379.97365</v>
+        <v>1717842.73115</v>
       </c>
       <c r="I24" s="47" t="n">
-        <v>1968326.11105</v>
+        <v>2018931.02585</v>
       </c>
       <c r="J24" s="47" t="n">
-        <v>1780561.726</v>
+        <v>1908889.82582</v>
       </c>
       <c r="K24" s="47" t="n">
-        <v>3701968.23423</v>
+        <v>3701968.234230001</v>
       </c>
       <c r="L24" s="47" t="n">
-        <v>7433507.73144</v>
+        <v>7428527.655</v>
       </c>
       <c r="M24" s="47" t="n">
-        <v>7067620.106969999</v>
-      </c>
-    </row>
-    <row r="25" spans="1:13">
+        <v>7078631.61344</v>
+      </c>
+      <c r="N24" s="47" t="n">
+        <v>11255523.154</v>
+      </c>
+    </row>
+    <row r="25">
       <c r="A25" s="14" t="n"/>
-      <c r="B25" s="42" t="s">
-        <v>22</v>
+      <c r="B25" s="42" t="inlineStr">
+        <is>
+          <t>F-INCOME FROM OTHER OPERATIONS</t>
+        </is>
       </c>
       <c r="C25" s="46" t="n">
         <v>453121.46589</v>
       </c>
       <c r="D25" s="47" t="n">
-        <v>488187.77457</v>
+        <v>488187.7745700001</v>
       </c>
       <c r="E25" s="47" t="n">
-        <v>630220.40734</v>
+        <v>630220.4073399999</v>
       </c>
       <c r="F25" s="47" t="n">
-        <v>707205.1276400001</v>
+        <v>707205.12764</v>
       </c>
       <c r="G25" s="47" t="n">
-        <v>1051454.85056</v>
+        <v>1072557.44124</v>
       </c>
       <c r="H25" s="47" t="n">
-        <v>1400559.61399</v>
+        <v>1453733.75624</v>
       </c>
       <c r="I25" s="47" t="n">
-        <v>1955941.07054</v>
+        <v>2067899.59224</v>
       </c>
       <c r="J25" s="47" t="n">
-        <v>2008070.0765</v>
+        <v>2299385.27043</v>
       </c>
       <c r="K25" s="47" t="n">
-        <v>3963675.591240001</v>
+        <v>3963675.59124</v>
       </c>
       <c r="L25" s="47" t="n">
-        <v>9633872.05968</v>
+        <v>9642566.3791</v>
       </c>
       <c r="M25" s="47" t="n">
-        <v>5971332.078</v>
-      </c>
-    </row>
-    <row r="26" spans="1:13">
+        <v>5974314.9757</v>
+      </c>
+      <c r="N25" s="47" t="n">
+        <v>9719598.358999999</v>
+      </c>
+    </row>
+    <row r="26">
       <c r="A26" s="9" t="n"/>
-      <c r="B26" s="41" t="s">
-        <v>23</v>
+      <c r="B26" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Dividends from Participations</t>
+        </is>
       </c>
       <c r="C26" s="48" t="n">
         <v>1462.53202</v>
@@ -1784,28 +1795,33 @@
         <v>14862.04941</v>
       </c>
       <c r="H26" s="48" t="n">
-        <v>14170.65371</v>
+        <v>14180.65371</v>
       </c>
       <c r="I26" s="48" t="n">
-        <v>10722.33836</v>
+        <v>10940.78168</v>
       </c>
       <c r="J26" s="48" t="n">
-        <v>5699.533200000001</v>
+        <v>5699.5332</v>
       </c>
       <c r="K26" s="48" t="n">
         <v>15952.67622</v>
       </c>
       <c r="L26" s="48" t="n">
-        <v>56571.03285</v>
+        <v>56583.83216000001</v>
       </c>
       <c r="M26" s="48" t="n">
-        <v>13902.52586</v>
-      </c>
-    </row>
-    <row r="27" spans="1:13">
+        <v>14000.64876</v>
+      </c>
+      <c r="N26" s="48" t="n">
+        <v>176111.278</v>
+      </c>
+    </row>
+    <row r="27">
       <c r="A27" s="9" t="n"/>
-      <c r="B27" s="41" t="s">
-        <v>24</v>
+      <c r="B27" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Dividends from Affiliated Enterprises</t>
+        </is>
       </c>
       <c r="C27" s="48" t="n">
         <v>2401.72559</v>
@@ -1840,11 +1856,16 @@
       <c r="M27" s="48" t="n">
         <v>339177.07478</v>
       </c>
-    </row>
-    <row r="28" spans="1:13">
+      <c r="N27" s="48" t="n">
+        <v>205889.379</v>
+      </c>
+    </row>
+    <row r="28">
       <c r="A28" s="9" t="n"/>
-      <c r="B28" s="41" t="s">
-        <v>25</v>
+      <c r="B28" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Interest Income</t>
+        </is>
       </c>
       <c r="C28" s="48" t="n">
         <v>30765.93516</v>
@@ -1856,34 +1877,39 @@
         <v>33774.68792</v>
       </c>
       <c r="F28" s="48" t="n">
-        <v>50183.37244</v>
+        <v>50183.37244000001</v>
       </c>
       <c r="G28" s="48" t="n">
-        <v>41785.15397</v>
+        <v>43679.35981</v>
       </c>
       <c r="H28" s="48" t="n">
-        <v>57859.84427</v>
+        <v>63884.13362000001</v>
       </c>
       <c r="I28" s="48" t="n">
-        <v>115090.40505</v>
+        <v>124792.28223</v>
       </c>
       <c r="J28" s="48" t="n">
-        <v>122732.51347</v>
+        <v>129687.20568</v>
       </c>
       <c r="K28" s="48" t="n">
         <v>173125.8239</v>
       </c>
       <c r="L28" s="48" t="n">
-        <v>319290.61084</v>
+        <v>319472.45567</v>
       </c>
       <c r="M28" s="48" t="n">
-        <v>396733.52816</v>
-      </c>
-    </row>
-    <row r="29" spans="1:13">
+        <v>398224.6028399999</v>
+      </c>
+      <c r="N28" s="48" t="n">
+        <v>333463.1</v>
+      </c>
+    </row>
+    <row r="29">
       <c r="A29" s="9" t="n"/>
-      <c r="B29" s="41" t="s">
-        <v>26</v>
+      <c r="B29" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Commissions</t>
+        </is>
       </c>
       <c r="C29" s="48" t="n">
         <v>1095.64658</v>
@@ -1918,14 +1944,19 @@
       <c r="M29" s="48" t="n">
         <v>2924.33888</v>
       </c>
-    </row>
-    <row r="30" spans="1:13">
+      <c r="N29" s="48" t="n">
+        <v>2285.735</v>
+      </c>
+    </row>
+    <row r="30">
       <c r="A30" s="9" t="n"/>
-      <c r="B30" s="41" t="s">
-        <v>27</v>
+      <c r="B30" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Provisions that are Cancelled</t>
+        </is>
       </c>
       <c r="C30" s="48" t="n">
-        <v>9930.401199999998</v>
+        <v>9930.4012</v>
       </c>
       <c r="D30" s="48" t="n">
         <v>8406.391149999998</v>
@@ -1943,31 +1974,36 @@
         <v>12636.21351</v>
       </c>
       <c r="I30" s="48" t="n">
-        <v>20193.95858</v>
+        <v>20631.96527</v>
       </c>
       <c r="J30" s="48" t="n">
-        <v>22507.2142</v>
+        <v>22607.35954</v>
       </c>
       <c r="K30" s="48" t="n">
         <v>18713.32001</v>
       </c>
       <c r="L30" s="48" t="n">
-        <v>22543.36525</v>
+        <v>22556.12958</v>
       </c>
       <c r="M30" s="48" t="n">
-        <v>29172.67467</v>
-      </c>
-    </row>
-    <row r="31" spans="1:13">
+        <v>29179.7139</v>
+      </c>
+      <c r="N30" s="48" t="n">
+        <v>50353.673</v>
+      </c>
+    </row>
+    <row r="31">
       <c r="A31" s="9" t="n"/>
-      <c r="B31" s="41" t="s">
-        <v>28</v>
+      <c r="B31" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Income from Sale of Securities</t>
+        </is>
       </c>
       <c r="C31" s="48" t="n">
         <v>2128.80765</v>
       </c>
       <c r="D31" s="48" t="n">
-        <v>4579.65369</v>
+        <v>4579.653689999999</v>
       </c>
       <c r="E31" s="48" t="n">
         <v>26916.28234</v>
@@ -1979,16 +2015,16 @@
         <v>13735.93066</v>
       </c>
       <c r="H31" s="48" t="n">
-        <v>2669.52332</v>
+        <v>6001.37329</v>
       </c>
       <c r="I31" s="48" t="n">
-        <v>33300.11121</v>
+        <v>37624.93192</v>
       </c>
       <c r="J31" s="48" t="n">
         <v>7715.2277</v>
       </c>
       <c r="K31" s="48" t="n">
-        <v>8214.851000000002</v>
+        <v>8214.851000000001</v>
       </c>
       <c r="L31" s="48" t="n">
         <v>36488.80447</v>
@@ -1996,17 +2032,22 @@
       <c r="M31" s="48" t="n">
         <v>24068.53238</v>
       </c>
-    </row>
-    <row r="32" spans="1:13">
+      <c r="N31" s="48" t="n">
+        <v>50473.889</v>
+      </c>
+    </row>
+    <row r="32">
       <c r="A32" s="9" t="n"/>
-      <c r="B32" s="41" t="s">
-        <v>29</v>
+      <c r="B32" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Exchange Profits</t>
+        </is>
       </c>
       <c r="C32" s="48" t="n">
         <v>322660.87465</v>
       </c>
       <c r="D32" s="48" t="n">
-        <v>347968.88883</v>
+        <v>347968.8888300001</v>
       </c>
       <c r="E32" s="48" t="n">
         <v>413243.17474</v>
@@ -2015,31 +2056,36 @@
         <v>486084.83759</v>
       </c>
       <c r="G32" s="48" t="n">
-        <v>673129.1501500001</v>
+        <v>690784.9865</v>
       </c>
       <c r="H32" s="48" t="n">
-        <v>1029242.54004</v>
+        <v>1071116.01037</v>
       </c>
       <c r="I32" s="48" t="n">
-        <v>1518103.99131</v>
+        <v>1608659.27904</v>
       </c>
       <c r="J32" s="48" t="n">
-        <v>1567756.26736</v>
+        <v>1829710.85462</v>
       </c>
       <c r="K32" s="48" t="n">
         <v>2897507.98291</v>
       </c>
       <c r="L32" s="48" t="n">
-        <v>8179793.97326</v>
+        <v>8188196.7261</v>
       </c>
       <c r="M32" s="48" t="n">
-        <v>4362741.09725</v>
-      </c>
-    </row>
-    <row r="33" spans="1:13">
+        <v>4363189.78721</v>
+      </c>
+      <c r="N32" s="48" t="n">
+        <v>8205964.437</v>
+      </c>
+    </row>
+    <row r="33">
       <c r="A33" s="9" t="n"/>
-      <c r="B33" s="41" t="s">
-        <v>30</v>
+      <c r="B33" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    8-Discount Income</t>
+        </is>
       </c>
       <c r="C33" s="48" t="n">
         <v>14742.3809</v>
@@ -2057,13 +2103,13 @@
         <v>29139.64442</v>
       </c>
       <c r="H33" s="48" t="n">
-        <v>38024.92971</v>
+        <v>38552.63851</v>
       </c>
       <c r="I33" s="48" t="n">
-        <v>38395.7231</v>
+        <v>39070.36043</v>
       </c>
       <c r="J33" s="48" t="n">
-        <v>61478.33793</v>
+        <v>61799.84401</v>
       </c>
       <c r="K33" s="48" t="n">
         <v>73114.75623</v>
@@ -2072,13 +2118,18 @@
         <v>162337.84309</v>
       </c>
       <c r="M33" s="48" t="n">
-        <v>276585.76714</v>
-      </c>
-    </row>
-    <row r="34" spans="1:13">
+        <v>276710.88295</v>
+      </c>
+      <c r="N33" s="48" t="n">
+        <v>135660.01</v>
+      </c>
+    </row>
+    <row r="34">
       <c r="A34" s="9" t="n"/>
-      <c r="B34" s="41" t="s">
-        <v>31</v>
+      <c r="B34" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    9-Inflation Adjustment Profits</t>
+        </is>
       </c>
       <c r="C34" s="48" t="n">
         <v>169.49665</v>
@@ -2093,7 +2144,7 @@
         <v>188.2466</v>
       </c>
       <c r="G34" s="48" t="n">
-        <v>36.37896000000001</v>
+        <v>36.37896</v>
       </c>
       <c r="H34" s="48" t="n">
         <v>11.35156</v>
@@ -2113,11 +2164,16 @@
       <c r="M34" s="48" t="n">
         <v>44.685</v>
       </c>
-    </row>
-    <row r="35" spans="1:13">
+      <c r="N34" s="48" t="n">
+        <v>331.534</v>
+      </c>
+    </row>
+    <row r="35">
       <c r="A35" s="9" t="n"/>
-      <c r="B35" s="41" t="s">
-        <v>32</v>
+      <c r="B35" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">   10-Other Income</t>
+        </is>
       </c>
       <c r="C35" s="48" t="n">
         <v>67763.66549000001</v>
@@ -2132,31 +2188,36 @@
         <v>118926.50428</v>
       </c>
       <c r="G35" s="48" t="n">
-        <v>119431.40379</v>
+        <v>120983.95228</v>
       </c>
       <c r="H35" s="48" t="n">
-        <v>158256.07483</v>
+        <v>159662.89863</v>
       </c>
       <c r="I35" s="48" t="n">
-        <v>212353.00093</v>
+        <v>218398.44967</v>
       </c>
       <c r="J35" s="48" t="n">
-        <v>202803.45462</v>
+        <v>224787.71766</v>
       </c>
       <c r="K35" s="48" t="n">
         <v>322506.29594</v>
       </c>
       <c r="L35" s="48" t="n">
-        <v>516792.71179</v>
+        <v>516876.8699</v>
       </c>
       <c r="M35" s="48" t="n">
-        <v>525981.85388</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13">
+        <v>526794.709</v>
+      </c>
+      <c r="N35" s="48" t="n">
+        <v>559065.324</v>
+      </c>
+    </row>
+    <row r="36">
       <c r="A36" s="14" t="n"/>
-      <c r="B36" s="38" t="s">
-        <v>33</v>
+      <c r="B36" s="38" t="inlineStr">
+        <is>
+          <t>G-EXPENSES FROM OTHER OPERATIONS (-)</t>
+        </is>
       </c>
       <c r="C36" s="46" t="n">
         <v>410429.80962</v>
@@ -2171,31 +2232,36 @@
         <v>531978.15258</v>
       </c>
       <c r="G36" s="47" t="n">
-        <v>827853.0161900001</v>
+        <v>858083.1979400001</v>
       </c>
       <c r="H36" s="47" t="n">
-        <v>993627.83156</v>
+        <v>1043789.49834</v>
       </c>
       <c r="I36" s="47" t="n">
-        <v>1592512.80836</v>
+        <v>1688194.13984</v>
       </c>
       <c r="J36" s="47" t="n">
-        <v>1680962.01049</v>
+        <v>2013894.64727</v>
       </c>
       <c r="K36" s="47" t="n">
         <v>3243380.53858</v>
       </c>
       <c r="L36" s="47" t="n">
-        <v>7183307.13617</v>
+        <v>7190310.903899999</v>
       </c>
       <c r="M36" s="47" t="n">
-        <v>4084920.06858</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13">
+        <v>4086787.98888</v>
+      </c>
+      <c r="N36" s="47" t="n">
+        <v>7520987.694</v>
+      </c>
+    </row>
+    <row r="37">
       <c r="A37" s="9" t="n"/>
-      <c r="B37" s="3" t="s">
-        <v>34</v>
+      <c r="B37" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Commissions (-)</t>
+        </is>
       </c>
       <c r="C37" s="48" t="n">
         <v>3100.29671</v>
@@ -2210,13 +2276,13 @@
         <v>4219.761820000001</v>
       </c>
       <c r="G37" s="48" t="n">
-        <v>5337.53931</v>
+        <v>5339.46435</v>
       </c>
       <c r="H37" s="48" t="n">
-        <v>7475.21152</v>
+        <v>7696.47766</v>
       </c>
       <c r="I37" s="48" t="n">
-        <v>6477.81401</v>
+        <v>6969.135879999999</v>
       </c>
       <c r="J37" s="48" t="n">
         <v>12287.19482</v>
@@ -2225,16 +2291,21 @@
         <v>19849.30684</v>
       </c>
       <c r="L37" s="48" t="n">
-        <v>34462.30669</v>
+        <v>34462.31164</v>
       </c>
       <c r="M37" s="48" t="n">
-        <v>34908.23093999999</v>
-      </c>
-    </row>
-    <row r="38" spans="1:13">
+        <v>34909.41989</v>
+      </c>
+      <c r="N37" s="48" t="n">
+        <v>42429.142</v>
+      </c>
+    </row>
+    <row r="38">
       <c r="A38" s="9" t="n"/>
-      <c r="B38" s="3" t="s">
-        <v>35</v>
+      <c r="B38" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Provision Expenses (-)</t>
+        </is>
       </c>
       <c r="C38" s="48" t="n">
         <v>39384.52501</v>
@@ -2252,28 +2323,33 @@
         <v>41582.83326000001</v>
       </c>
       <c r="H38" s="48" t="n">
-        <v>44426.09482</v>
+        <v>65858.17769</v>
       </c>
       <c r="I38" s="48" t="n">
-        <v>56231.3865</v>
+        <v>77865.45444</v>
       </c>
       <c r="J38" s="48" t="n">
-        <v>93458.87842000001</v>
+        <v>93719.98317000001</v>
       </c>
       <c r="K38" s="48" t="n">
         <v>97337.69391</v>
       </c>
       <c r="L38" s="48" t="n">
-        <v>120140.5727</v>
+        <v>120140.57271</v>
       </c>
       <c r="M38" s="48" t="n">
-        <v>146539.35351</v>
-      </c>
-    </row>
-    <row r="39" spans="1:13">
+        <v>147310.81495</v>
+      </c>
+      <c r="N38" s="48" t="n">
+        <v>154874.808</v>
+      </c>
+    </row>
+    <row r="39">
       <c r="A39" s="9" t="n"/>
-      <c r="B39" s="3" t="s">
-        <v>36</v>
+      <c r="B39" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Loss from Sale of Securities (-)</t>
+        </is>
       </c>
       <c r="C39" s="48" t="n">
         <v>2542.1503</v>
@@ -2282,37 +2358,42 @@
         <v>2826.61059</v>
       </c>
       <c r="E39" s="48" t="n">
-        <v>711.5746700000001</v>
+        <v>711.57467</v>
       </c>
       <c r="F39" s="48" t="n">
-        <v>54346.20830000001</v>
+        <v>54346.2083</v>
       </c>
       <c r="G39" s="48" t="n">
         <v>2897.08679</v>
       </c>
       <c r="H39" s="48" t="n">
-        <v>965.82278</v>
+        <v>1249.92468</v>
       </c>
       <c r="I39" s="48" t="n">
-        <v>23501.3166</v>
+        <v>25779.5742</v>
       </c>
       <c r="J39" s="48" t="n">
-        <v>4997.67597</v>
+        <v>4997.675969999999</v>
       </c>
       <c r="K39" s="48" t="n">
         <v>2953.42319</v>
       </c>
       <c r="L39" s="48" t="n">
-        <v>8650.870560000001</v>
+        <v>8659.752560000001</v>
       </c>
       <c r="M39" s="48" t="n">
         <v>578.75399</v>
       </c>
-    </row>
-    <row r="40" spans="1:13">
+      <c r="N39" s="48" t="n">
+        <v>583.451</v>
+      </c>
+    </row>
+    <row r="40">
       <c r="A40" s="9" t="n"/>
-      <c r="B40" s="3" t="s">
-        <v>37</v>
+      <c r="B40" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    4-Exchange Losses (-)</t>
+        </is>
       </c>
       <c r="C40" s="48" t="n">
         <v>281769.22004</v>
@@ -2327,31 +2408,36 @@
         <v>308536.64417</v>
       </c>
       <c r="G40" s="48" t="n">
-        <v>624694.46682</v>
+        <v>654922.72353</v>
       </c>
       <c r="H40" s="48" t="n">
-        <v>771555.7113</v>
+        <v>799316.7934499999</v>
       </c>
       <c r="I40" s="48" t="n">
-        <v>1321428.03294</v>
+        <v>1390415.85612</v>
       </c>
       <c r="J40" s="48" t="n">
-        <v>1466707.27497</v>
+        <v>1719282.00423</v>
       </c>
       <c r="K40" s="48" t="n">
         <v>2768603.38868</v>
       </c>
       <c r="L40" s="48" t="n">
-        <v>6491520.975819999</v>
+        <v>6498423.249220001</v>
       </c>
       <c r="M40" s="48" t="n">
-        <v>3339823.51258</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13">
+        <v>3340160.66547</v>
+      </c>
+      <c r="N40" s="48" t="n">
+        <v>6807849.527</v>
+      </c>
+    </row>
+    <row r="41">
       <c r="A41" s="9" t="n"/>
-      <c r="B41" s="3" t="s">
-        <v>38</v>
+      <c r="B41" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    5-Discount Costs (-)</t>
+        </is>
       </c>
       <c r="C41" s="48" t="n">
         <v>13797.32169</v>
@@ -2369,13 +2455,13 @@
         <v>32384.60569</v>
       </c>
       <c r="H41" s="48" t="n">
-        <v>39307.20604999999</v>
+        <v>39770.33977</v>
       </c>
       <c r="I41" s="48" t="n">
-        <v>41142.00332</v>
+        <v>41814.01016</v>
       </c>
       <c r="J41" s="48" t="n">
-        <v>58225.41251</v>
+        <v>58813.59772</v>
       </c>
       <c r="K41" s="48" t="n">
         <v>79551.3977</v>
@@ -2384,13 +2470,18 @@
         <v>183354.26666</v>
       </c>
       <c r="M41" s="48" t="n">
-        <v>269467.5539</v>
-      </c>
-    </row>
-    <row r="42" spans="1:13">
+        <v>269773.96138</v>
+      </c>
+      <c r="N41" s="48" t="n">
+        <v>154413.645</v>
+      </c>
+    </row>
+    <row r="42">
       <c r="A42" s="9" t="n"/>
-      <c r="B42" s="3" t="s">
-        <v>39</v>
+      <c r="B42" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    6-Inflation Adjustment Losses (-)</t>
+        </is>
       </c>
       <c r="C42" s="48" t="n">
         <v>14.84064</v>
@@ -2425,11 +2516,16 @@
       <c r="M42" s="48" t="n">
         <v>0.00083</v>
       </c>
-    </row>
-    <row r="43" spans="1:13">
+      <c r="N42" s="48" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43">
       <c r="A43" s="9" t="n"/>
-      <c r="B43" s="3" t="s">
-        <v>40</v>
+      <c r="B43" s="3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    7-Other Expenditures (-)</t>
+        </is>
       </c>
       <c r="C43" s="48" t="n">
         <v>69821.45523000001</v>
@@ -2450,25 +2546,30 @@
         <v>129897.78509</v>
       </c>
       <c r="I43" s="48" t="n">
-        <v>143732.25499</v>
+        <v>145350.10904</v>
       </c>
       <c r="J43" s="48" t="n">
-        <v>45285.5738</v>
+        <v>124794.19136</v>
       </c>
       <c r="K43" s="48" t="n">
         <v>275085.32826</v>
       </c>
       <c r="L43" s="48" t="n">
-        <v>342992.77091</v>
+        <v>343085.37828</v>
       </c>
       <c r="M43" s="48" t="n">
-        <v>293602.66283</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13">
+        <v>294054.37237</v>
+      </c>
+      <c r="N43" s="48" t="n">
+        <v>360837.121</v>
+      </c>
+    </row>
+    <row r="44">
       <c r="A44" s="14" t="n"/>
-      <c r="B44" s="38" t="s">
-        <v>41</v>
+      <c r="B44" s="38" t="inlineStr">
+        <is>
+          <t>H-FINANCING EXPENSES  (-)</t>
+        </is>
       </c>
       <c r="C44" s="46" t="n">
         <v>350817.98078</v>
@@ -2477,82 +2578,92 @@
         <v>294007.56585</v>
       </c>
       <c r="E44" s="47" t="n">
-        <v>617635.2419499999</v>
+        <v>617635.2419500001</v>
       </c>
       <c r="F44" s="47" t="n">
         <v>451694.39367</v>
       </c>
       <c r="G44" s="47" t="n">
-        <v>781944.23393</v>
+        <v>790085.6843199999</v>
       </c>
       <c r="H44" s="47" t="n">
-        <v>845335.53421</v>
+        <v>848429.81758</v>
       </c>
       <c r="I44" s="47" t="n">
-        <v>1295778.52342</v>
+        <v>1350576.7539</v>
       </c>
       <c r="J44" s="47" t="n">
-        <v>1666047.58657</v>
+        <v>1672800.70532</v>
       </c>
       <c r="K44" s="47" t="n">
         <v>2281093.20169</v>
       </c>
       <c r="L44" s="47" t="n">
-        <v>5364921.780549999</v>
+        <v>5365236.01743</v>
       </c>
       <c r="M44" s="47" t="n">
-        <v>4479998.498179999</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13">
+        <v>4486589.73459</v>
+      </c>
+      <c r="N44" s="47" t="n">
+        <v>4933010.388</v>
+      </c>
+    </row>
+    <row r="45">
       <c r="A45" s="9" t="n"/>
-      <c r="B45" s="41" t="s">
-        <v>42</v>
+      <c r="B45" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Short-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C45" s="48" t="n">
-        <v>296374.9227700001</v>
+        <v>296374.92277</v>
       </c>
       <c r="D45" s="48" t="n">
         <v>243517.28356</v>
       </c>
       <c r="E45" s="48" t="n">
-        <v>432374.1223100001</v>
+        <v>432374.12231</v>
       </c>
       <c r="F45" s="48" t="n">
         <v>351277.71494</v>
       </c>
       <c r="G45" s="48" t="n">
-        <v>429710.76305</v>
+        <v>437852.21344</v>
       </c>
       <c r="H45" s="48" t="n">
-        <v>601263.7304</v>
+        <v>604154.4487099999</v>
       </c>
       <c r="I45" s="48" t="n">
-        <v>863920.0467800001</v>
+        <v>909073.7481</v>
       </c>
       <c r="J45" s="48" t="n">
-        <v>1069525.42294</v>
+        <v>1075566.99429</v>
       </c>
       <c r="K45" s="48" t="n">
         <v>1369185.42097</v>
       </c>
       <c r="L45" s="48" t="n">
-        <v>3355760.21075</v>
+        <v>3356074.44763</v>
       </c>
       <c r="M45" s="48" t="n">
-        <v>3216634.068020001</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13">
+        <v>3223175.59716</v>
+      </c>
+      <c r="N45" s="48" t="n">
+        <v>2533778.011</v>
+      </c>
+    </row>
+    <row r="46">
       <c r="A46" s="9" t="n"/>
-      <c r="B46" s="41" t="s">
-        <v>43</v>
+      <c r="B46" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Long-term Financing Expenses (-)</t>
+        </is>
       </c>
       <c r="C46" s="48" t="n">
-        <v>54443.05801000001</v>
+        <v>54443.05801</v>
       </c>
       <c r="D46" s="48" t="n">
-        <v>50490.28229000001</v>
+        <v>50490.28229</v>
       </c>
       <c r="E46" s="48" t="n">
         <v>185261.11964</v>
@@ -2564,13 +2675,13 @@
         <v>352233.47088</v>
       </c>
       <c r="H46" s="48" t="n">
-        <v>244071.80381</v>
+        <v>244275.36887</v>
       </c>
       <c r="I46" s="48" t="n">
-        <v>431858.47664</v>
+        <v>441503.0058</v>
       </c>
       <c r="J46" s="48" t="n">
-        <v>596522.16363</v>
+        <v>597233.7110300001</v>
       </c>
       <c r="K46" s="48" t="n">
         <v>911907.78072</v>
@@ -2579,13 +2690,18 @@
         <v>2009161.5698</v>
       </c>
       <c r="M46" s="48" t="n">
-        <v>1263364.43016</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13">
+        <v>1263414.13743</v>
+      </c>
+      <c r="N46" s="48" t="n">
+        <v>2399232.377</v>
+      </c>
+    </row>
+    <row r="47">
       <c r="A47" s="14" t="n"/>
-      <c r="B47" s="42" t="s">
-        <v>44</v>
+      <c r="B47" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT BEFORE EXTRAORDINARY ITEMS</t>
+        </is>
       </c>
       <c r="C47" s="46" t="n">
         <v>395431.66666</v>
@@ -2597,34 +2713,39 @@
         <v>474521.42713</v>
       </c>
       <c r="F47" s="47" t="n">
-        <v>870459.9732100001</v>
+        <v>870459.97321</v>
       </c>
       <c r="G47" s="47" t="n">
-        <v>738616.03026</v>
+        <v>716768.17737</v>
       </c>
       <c r="H47" s="47" t="n">
-        <v>1267976.22187</v>
+        <v>1279357.17147</v>
       </c>
       <c r="I47" s="47" t="n">
-        <v>1035975.84981</v>
+        <v>1048059.72435</v>
       </c>
       <c r="J47" s="47" t="n">
-        <v>441622.20544</v>
+        <v>521579.74366</v>
       </c>
       <c r="K47" s="47" t="n">
         <v>2141170.0852</v>
       </c>
       <c r="L47" s="47" t="n">
-        <v>4519150.874400001</v>
+        <v>4515547.11277</v>
       </c>
       <c r="M47" s="47" t="n">
-        <v>4474033.61821</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13">
+        <v>4479568.865669999</v>
+      </c>
+      <c r="N47" s="47" t="n">
+        <v>8521123.431</v>
+      </c>
+    </row>
+    <row r="48">
       <c r="A48" s="14" t="n"/>
-      <c r="B48" s="42" t="s">
-        <v>45</v>
+      <c r="B48" s="42" t="inlineStr">
+        <is>
+          <t>I-EXTRAORDINARY INCOME AND PROFITS</t>
+        </is>
       </c>
       <c r="C48" s="46" t="n">
         <v>70332.18725999999</v>
@@ -2639,31 +2760,36 @@
         <v>101294.24712</v>
       </c>
       <c r="G48" s="47" t="n">
-        <v>302301.71925</v>
+        <v>302345.80954</v>
       </c>
       <c r="H48" s="47" t="n">
-        <v>181268.55073</v>
+        <v>189752.97368</v>
       </c>
       <c r="I48" s="47" t="n">
-        <v>209398.88505</v>
+        <v>222836.3228</v>
       </c>
       <c r="J48" s="47" t="n">
-        <v>338964.21356</v>
+        <v>353927.28223</v>
       </c>
       <c r="K48" s="47" t="n">
         <v>362914.29591</v>
       </c>
       <c r="L48" s="47" t="n">
-        <v>500589.35461</v>
+        <v>513119.51115</v>
       </c>
       <c r="M48" s="47" t="n">
-        <v>457661.88234</v>
-      </c>
-    </row>
-    <row r="49" spans="1:13">
+        <v>458394.90279</v>
+      </c>
+      <c r="N48" s="47" t="n">
+        <v>580547.0060000001</v>
+      </c>
+    </row>
+    <row r="49">
       <c r="A49" s="9" t="n"/>
-      <c r="B49" s="41" t="s">
-        <v>46</v>
+      <c r="B49" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Profits and Income from Previous Period</t>
+        </is>
       </c>
       <c r="C49" s="48" t="n">
         <v>3441.26836</v>
@@ -2672,7 +2798,7 @@
         <v>2989.74943</v>
       </c>
       <c r="E49" s="48" t="n">
-        <v>4742.56264</v>
+        <v>4742.562640000001</v>
       </c>
       <c r="F49" s="48" t="n">
         <v>1775.83499</v>
@@ -2681,10 +2807,10 @@
         <v>2571.31198</v>
       </c>
       <c r="H49" s="48" t="n">
-        <v>7161.03298</v>
+        <v>7179.33731</v>
       </c>
       <c r="I49" s="48" t="n">
-        <v>6314.84531</v>
+        <v>6670.110070000001</v>
       </c>
       <c r="J49" s="48" t="n">
         <v>3654.15149</v>
@@ -2693,19 +2819,24 @@
         <v>4109.20908</v>
       </c>
       <c r="L49" s="48" t="n">
-        <v>7615.809000000001</v>
+        <v>18608.68883</v>
       </c>
       <c r="M49" s="48" t="n">
-        <v>13691.03</v>
-      </c>
-    </row>
-    <row r="50" spans="1:13">
+        <v>13691.38647</v>
+      </c>
+      <c r="N49" s="48" t="n">
+        <v>9031.566999999999</v>
+      </c>
+    </row>
+    <row r="50">
       <c r="A50" s="9" t="n"/>
-      <c r="B50" s="41" t="s">
-        <v>47</v>
+      <c r="B50" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Other Extraordinary Profits and Income</t>
+        </is>
       </c>
       <c r="C50" s="48" t="n">
-        <v>66890.91889999999</v>
+        <v>66890.9189</v>
       </c>
       <c r="D50" s="48" t="n">
         <v>118199.23309</v>
@@ -2717,31 +2848,36 @@
         <v>99518.41213</v>
       </c>
       <c r="G50" s="48" t="n">
-        <v>299730.40727</v>
+        <v>299774.49756</v>
       </c>
       <c r="H50" s="48" t="n">
-        <v>174107.51775</v>
+        <v>182573.63637</v>
       </c>
       <c r="I50" s="48" t="n">
-        <v>203084.03974</v>
+        <v>216166.21273</v>
       </c>
       <c r="J50" s="48" t="n">
-        <v>335310.06207</v>
+        <v>350273.1307399999</v>
       </c>
       <c r="K50" s="48" t="n">
         <v>358805.08683</v>
       </c>
       <c r="L50" s="48" t="n">
-        <v>492973.54561</v>
+        <v>494510.82232</v>
       </c>
       <c r="M50" s="48" t="n">
-        <v>443970.85234</v>
-      </c>
-    </row>
-    <row r="51" spans="1:13">
+        <v>444703.51632</v>
+      </c>
+      <c r="N50" s="48" t="n">
+        <v>571515.439</v>
+      </c>
+    </row>
+    <row r="51">
       <c r="A51" s="14" t="n"/>
-      <c r="B51" s="38" t="s">
-        <v>48</v>
+      <c r="B51" s="38" t="inlineStr">
+        <is>
+          <t>J-EXTRA ORDINARY EXPENSES AND LOSSES (-)</t>
+        </is>
       </c>
       <c r="C51" s="46" t="n">
         <v>144404.82884</v>
@@ -2756,70 +2892,80 @@
         <v>146014.38964</v>
       </c>
       <c r="G51" s="47" t="n">
-        <v>193646.29555</v>
+        <v>193670.66026</v>
       </c>
       <c r="H51" s="47" t="n">
-        <v>290275.85593</v>
+        <v>296772.63469</v>
       </c>
       <c r="I51" s="47" t="n">
-        <v>406284.35863</v>
+        <v>412468.6747</v>
       </c>
       <c r="J51" s="47" t="n">
-        <v>413080.81215</v>
+        <v>432092.7589600001</v>
       </c>
       <c r="K51" s="47" t="n">
         <v>263617.76297</v>
       </c>
       <c r="L51" s="47" t="n">
-        <v>493954.59108</v>
+        <v>497208.22502</v>
       </c>
       <c r="M51" s="47" t="n">
-        <v>423409.26339</v>
-      </c>
-    </row>
-    <row r="52" spans="1:13">
+        <v>424137.89122</v>
+      </c>
+      <c r="N51" s="47" t="n">
+        <v>746139.278</v>
+      </c>
+    </row>
+    <row r="52">
       <c r="A52" s="9" t="n"/>
-      <c r="B52" s="41" t="s">
-        <v>49</v>
+      <c r="B52" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    1-Losses from non-Operating Parts (-)</t>
+        </is>
       </c>
       <c r="C52" s="48" t="n">
-        <v>44880.36240999999</v>
+        <v>44880.36241</v>
       </c>
       <c r="D52" s="48" t="n">
         <v>42110.54623000001</v>
       </c>
       <c r="E52" s="48" t="n">
-        <v>45496.26777</v>
+        <v>45496.26777000001</v>
       </c>
       <c r="F52" s="48" t="n">
         <v>56976.35347000001</v>
       </c>
       <c r="G52" s="48" t="n">
-        <v>52207.40504000001</v>
+        <v>52207.40504</v>
       </c>
       <c r="H52" s="48" t="n">
-        <v>99504.99862</v>
+        <v>102063.83673</v>
       </c>
       <c r="I52" s="48" t="n">
-        <v>194754.27815</v>
+        <v>196994.49893</v>
       </c>
       <c r="J52" s="48" t="n">
         <v>79576.15426000001</v>
       </c>
       <c r="K52" s="48" t="n">
-        <v>55157.98000000001</v>
+        <v>55157.98</v>
       </c>
       <c r="L52" s="48" t="n">
-        <v>154529.00898</v>
+        <v>154566.95652</v>
       </c>
       <c r="M52" s="48" t="n">
-        <v>149775.83637</v>
-      </c>
-    </row>
-    <row r="53" spans="1:13">
+        <v>149778.92305</v>
+      </c>
+      <c r="N52" s="48" t="n">
+        <v>232908.067</v>
+      </c>
+    </row>
+    <row r="53">
       <c r="A53" s="9" t="n"/>
-      <c r="B53" s="41" t="s">
-        <v>50</v>
+      <c r="B53" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    2-Losses from Previous Periods (-)</t>
+        </is>
       </c>
       <c r="C53" s="48" t="n">
         <v>11524.43433</v>
@@ -2834,37 +2980,42 @@
         <v>6283.68455</v>
       </c>
       <c r="G53" s="48" t="n">
-        <v>5760.676249999999</v>
+        <v>5760.67625</v>
       </c>
       <c r="H53" s="48" t="n">
-        <v>14496.31281</v>
+        <v>14618.71275</v>
       </c>
       <c r="I53" s="48" t="n">
-        <v>7724.517700000001</v>
+        <v>8988.283230000001</v>
       </c>
       <c r="J53" s="48" t="n">
-        <v>12663.10613</v>
+        <v>12757.36382</v>
       </c>
       <c r="K53" s="48" t="n">
-        <v>9278.716640000001</v>
+        <v>9278.716639999999</v>
       </c>
       <c r="L53" s="48" t="n">
-        <v>9299.94937</v>
+        <v>9324.10377</v>
       </c>
       <c r="M53" s="48" t="n">
-        <v>11866.59662</v>
-      </c>
-    </row>
-    <row r="54" spans="1:13">
+        <v>12083.39628</v>
+      </c>
+      <c r="N53" s="48" t="n">
+        <v>11974.397</v>
+      </c>
+    </row>
+    <row r="54">
       <c r="A54" s="9" t="n"/>
-      <c r="B54" s="41" t="s">
-        <v>51</v>
+      <c r="B54" s="41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">    3-Other Extraordinary Expenses (-)</t>
+        </is>
       </c>
       <c r="C54" s="48" t="n">
         <v>88000.0321</v>
       </c>
       <c r="D54" s="48" t="n">
-        <v>79825.95028999999</v>
+        <v>79825.95029000001</v>
       </c>
       <c r="E54" s="48" t="n">
         <v>265279.17258</v>
@@ -2873,31 +3024,36 @@
         <v>82754.35162</v>
       </c>
       <c r="G54" s="48" t="n">
-        <v>135678.21426</v>
+        <v>135702.57897</v>
       </c>
       <c r="H54" s="48" t="n">
-        <v>176274.5445</v>
+        <v>180090.08521</v>
       </c>
       <c r="I54" s="48" t="n">
-        <v>203805.56278</v>
+        <v>206485.89254</v>
       </c>
       <c r="J54" s="48" t="n">
-        <v>320841.55176</v>
+        <v>339759.24088</v>
       </c>
       <c r="K54" s="48" t="n">
         <v>199181.06633</v>
       </c>
       <c r="L54" s="48" t="n">
-        <v>330125.63273</v>
+        <v>333317.16473</v>
       </c>
       <c r="M54" s="48" t="n">
-        <v>261766.8304</v>
-      </c>
-    </row>
-    <row r="55" spans="1:13">
+        <v>262275.57189</v>
+      </c>
+      <c r="N54" s="48" t="n">
+        <v>501256.814</v>
+      </c>
+    </row>
+    <row r="55">
       <c r="A55" s="14" t="n"/>
-      <c r="B55" s="42" t="s">
-        <v>52</v>
+      <c r="B55" s="42" t="inlineStr">
+        <is>
+          <t>PROFIT OR LOSS BEFORE TAXES</t>
+        </is>
       </c>
       <c r="C55" s="46" t="n">
         <v>321359.0250800001</v>
@@ -2912,34 +3068,39 @@
         <v>825739.8306900001</v>
       </c>
       <c r="G55" s="47" t="n">
-        <v>847271.4539600001</v>
+        <v>825443.3266500001</v>
       </c>
       <c r="H55" s="47" t="n">
-        <v>1158968.91667</v>
+        <v>1172337.51046</v>
       </c>
       <c r="I55" s="47" t="n">
-        <v>839090.3762300001</v>
+        <v>858427.37245</v>
       </c>
       <c r="J55" s="47" t="n">
-        <v>367505.60685</v>
+        <v>443414.26693</v>
       </c>
       <c r="K55" s="47" t="n">
         <v>2240466.61814</v>
       </c>
       <c r="L55" s="47" t="n">
-        <v>4525785.63793</v>
+        <v>4531458.398899999</v>
       </c>
       <c r="M55" s="47" t="n">
-        <v>4508286.23716</v>
-      </c>
-    </row>
-    <row r="56" spans="1:13">
+        <v>4513825.877239999</v>
+      </c>
+      <c r="N55" s="47" t="n">
+        <v>8355531.159</v>
+      </c>
+    </row>
+    <row r="56">
       <c r="A56" s="14" t="n"/>
-      <c r="B56" s="42" t="s">
-        <v>53</v>
+      <c r="B56" s="42" t="inlineStr">
+        <is>
+          <t>K-PROVISIONS FOR INC.TAX &amp; OTH.LIAB.TO GOV.</t>
+        </is>
       </c>
       <c r="C56" s="46" t="n">
-        <v>94525.30333000001</v>
+        <v>94525.30333</v>
       </c>
       <c r="D56" s="47" t="n">
         <v>109419.24451</v>
@@ -2954,28 +3115,33 @@
         <v>153794.59916</v>
       </c>
       <c r="H56" s="47" t="n">
-        <v>215941.11511</v>
+        <v>216411.3921</v>
       </c>
       <c r="I56" s="47" t="n">
-        <v>216955.23385</v>
+        <v>221206.27217</v>
       </c>
       <c r="J56" s="47" t="n">
-        <v>185062.73604</v>
+        <v>192015.62305</v>
       </c>
       <c r="K56" s="47" t="n">
         <v>313662.81195</v>
       </c>
       <c r="L56" s="47" t="n">
-        <v>771344.9445</v>
+        <v>771538.90218</v>
       </c>
       <c r="M56" s="47" t="n">
-        <v>714068.15009</v>
-      </c>
-    </row>
-    <row r="57" spans="1:13">
+        <v>732432.6889600001</v>
+      </c>
+      <c r="N56" s="47" t="n">
+        <v>1076969.845</v>
+      </c>
+    </row>
+    <row r="57">
       <c r="A57" s="14" t="n"/>
-      <c r="B57" s="42" t="s">
-        <v>54</v>
+      <c r="B57" s="42" t="inlineStr">
+        <is>
+          <t>NET PROFIT OR LOSS FOR THE FINANCIAL YEAR</t>
+        </is>
       </c>
       <c r="C57" s="46" t="n">
         <v>226833.72175</v>
@@ -2987,31 +3153,34 @@
         <v>183411.16113</v>
       </c>
       <c r="F57" s="47" t="n">
-        <v>661924.0771699999</v>
+        <v>661924.0771700001</v>
       </c>
       <c r="G57" s="47" t="n">
-        <v>693476.8548</v>
+        <v>671648.72749</v>
       </c>
       <c r="H57" s="47" t="n">
-        <v>943027.8015599999</v>
+        <v>955926.11836</v>
       </c>
       <c r="I57" s="47" t="n">
-        <v>622135.14238</v>
+        <v>637221.10028</v>
       </c>
       <c r="J57" s="47" t="n">
-        <v>182442.87081</v>
+        <v>251398.64388</v>
       </c>
       <c r="K57" s="47" t="n">
         <v>1926803.80619</v>
       </c>
       <c r="L57" s="47" t="n">
-        <v>3754440.69343</v>
+        <v>3759919.496719999</v>
       </c>
       <c r="M57" s="47" t="n">
-        <v>3794218.08707</v>
-      </c>
-    </row>
-    <row r="58" spans="1:13">
+        <v>3781393.18828</v>
+      </c>
+      <c r="N57" s="47" t="n">
+        <v>7278561.314</v>
+      </c>
+    </row>
+    <row r="58">
       <c r="A58" s="9" t="n"/>
       <c r="B58" s="30" t="n"/>
       <c r="C58" s="27" t="n"/>
@@ -3025,11 +3194,14 @@
       <c r="K58" s="27" t="n"/>
       <c r="L58" s="27" t="n"/>
       <c r="M58" s="27" t="n"/>
-    </row>
-    <row r="59" spans="1:13">
+      <c r="N58" s="27" t="n"/>
+    </row>
+    <row r="59">
       <c r="A59" s="9" t="n"/>
-      <c r="B59" s="43" t="s">
-        <v>55</v>
+      <c r="B59" s="43" t="inlineStr">
+        <is>
+          <t>Number of Companies</t>
+        </is>
       </c>
       <c r="C59" s="35" t="n">
         <v>1707</v>
@@ -3044,28 +3216,31 @@
         <v>1798</v>
       </c>
       <c r="G59" s="35" t="n">
-        <v>1909</v>
+        <v>1912</v>
       </c>
       <c r="H59" s="35" t="n">
-        <v>1983</v>
+        <v>1989</v>
       </c>
       <c r="I59" s="35" t="n">
-        <v>2035</v>
+        <v>2057</v>
       </c>
       <c r="J59" s="35" t="n">
-        <v>2126</v>
+        <v>2144</v>
       </c>
       <c r="K59" s="35" t="n">
         <v>2264</v>
       </c>
       <c r="L59" s="35" t="n">
-        <v>2185</v>
+        <v>2361</v>
       </c>
       <c r="M59" s="35" t="n">
-        <v>2292</v>
-      </c>
-    </row>
-    <row r="60" spans="1:13">
+        <v>2542</v>
+      </c>
+      <c r="N59" s="35" t="n">
+        <v>2799</v>
+      </c>
+    </row>
+    <row r="60">
       <c r="A60" s="10" t="n"/>
       <c r="B60" s="29" t="n"/>
       <c r="C60" s="28" t="n"/>
@@ -3079,8 +3254,9 @@
       <c r="K60" s="28" t="n"/>
       <c r="L60" s="28" t="n"/>
       <c r="M60" s="28" t="n"/>
-    </row>
-    <row customHeight="1" ht="15.75" r="61" s="44" spans="1:13">
+      <c r="N60" s="28" t="n"/>
+    </row>
+    <row r="61" ht="15.75" customHeight="1" s="44">
       <c r="A61" s="5" t="n"/>
       <c r="B61" s="11" t="n"/>
       <c r="C61" s="11" t="n"/>
@@ -3094,8 +3270,9 @@
       <c r="K61" s="11" t="n"/>
       <c r="L61" s="11" t="n"/>
       <c r="M61" s="11" t="n"/>
-    </row>
-    <row customFormat="1" r="62" s="19" spans="1:13">
+      <c r="N61" s="11" t="n"/>
+    </row>
+    <row r="62" customFormat="1" s="19">
       <c r="A62" s="16" t="n"/>
       <c r="B62" s="18" t="n"/>
       <c r="C62" s="18" t="n"/>
@@ -3109,8 +3286,9 @@
       <c r="K62" s="18" t="n"/>
       <c r="L62" s="18" t="n"/>
       <c r="M62" s="18" t="n"/>
-    </row>
-    <row customFormat="1" r="63" s="23" spans="1:13">
+      <c r="N62" s="18" t="n"/>
+    </row>
+    <row r="63" customFormat="1" s="23">
       <c r="A63" s="20" t="n"/>
       <c r="B63" s="21" t="n"/>
       <c r="C63" s="22" t="n"/>
@@ -3124,8 +3302,9 @@
       <c r="K63" s="22" t="n"/>
       <c r="L63" s="22" t="n"/>
       <c r="M63" s="22" t="n"/>
-    </row>
-    <row customFormat="1" r="64" s="25" spans="1:13">
+      <c r="N63" s="22" t="n"/>
+    </row>
+    <row r="64" customFormat="1" s="25">
       <c r="C64" s="25" t="n"/>
       <c r="D64" s="25" t="n"/>
       <c r="E64" s="25" t="n"/>
@@ -3137,10 +3316,11 @@
       <c r="K64" s="25" t="n"/>
       <c r="L64" s="25" t="n"/>
       <c r="M64" s="25" t="n"/>
+      <c r="N64" s="25" t="n"/>
     </row>
   </sheetData>
   <printOptions gridLinesSet="0"/>
-  <pageMargins bottom="0.3937007874015748" footer="0.3543307086614174" header="0.3543307086614174" left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898"/>
-  <pageSetup horizontalDpi="300" orientation="portrait" paperSize="9" scale="93" verticalDpi="300"/>
+  <pageMargins left="0.7480314960629921" right="0.1968503937007874" top="0.4724409448818898" bottom="0.3937007874015748" header="0.3543307086614174" footer="0.3543307086614174"/>
+  <pageSetup orientation="portrait" paperSize="9" scale="93" horizontalDpi="300" verticalDpi="300"/>
 </worksheet>
 </file>